--- a/data/trans_orig/P43B-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P43B-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EA292C02-2341-4E32-AEDE-3D84C6EF1E72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3D270059-E6E7-458F-9B2D-9EEDEC889DD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C392BE1E-CFB0-4FF1-A8EA-84C8C46E0C7E}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1537ACB6-3DA1-4927-85C9-227CEE3184CE}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="148">
   <si>
     <t>Población según el lugar donde le realizaron dicha mamografía en 2012 (Tasa respuesta: 22,96%)</t>
   </si>
@@ -79,10 +79,10 @@
     <t>17,97%</t>
   </si>
   <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>39,76%</t>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>38,81%</t>
   </si>
   <si>
     <t>Servicio sanitario público</t>
@@ -91,10 +91,10 @@
     <t>82,03%</t>
   </si>
   <si>
-    <t>60,24%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
+    <t>61,19%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
   </si>
   <si>
     <t>100%</t>
@@ -106,19 +106,19 @@
     <t>32,29%</t>
   </si>
   <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>43,11%</t>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>42,64%</t>
   </si>
   <si>
     <t>67,71%</t>
   </si>
   <si>
-    <t>56,89%</t>
-  </si>
-  <si>
-    <t>78,38%</t>
+    <t>57,36%</t>
+  </si>
+  <si>
+    <t>78,22%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -127,19 +127,19 @@
     <t>30,1%</t>
   </si>
   <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>36,42%</t>
+    <t>24,42%</t>
+  </si>
+  <si>
+    <t>37,4%</t>
   </si>
   <si>
     <t>69,9%</t>
   </si>
   <si>
-    <t>63,58%</t>
-  </si>
-  <si>
-    <t>75,62%</t>
+    <t>62,6%</t>
+  </si>
+  <si>
+    <t>75,58%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -148,19 +148,19 @@
     <t>17,96%</t>
   </si>
   <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
   </si>
   <si>
     <t>82,04%</t>
   </si>
   <si>
-    <t>77,17%</t>
-  </si>
-  <si>
-    <t>85,9%</t>
+    <t>77,35%</t>
+  </si>
+  <si>
+    <t>86,0%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -169,19 +169,19 @@
     <t>8,11%</t>
   </si>
   <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
   </si>
   <si>
     <t>91,89%</t>
   </si>
   <si>
-    <t>88,15%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
+    <t>88,57%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -190,37 +190,37 @@
     <t>6,05%</t>
   </si>
   <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
   </si>
   <si>
     <t>93,95%</t>
   </si>
   <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
+    <t>91,34%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
   </si>
   <si>
     <t>14,31%</t>
   </si>
   <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
   </si>
   <si>
     <t>85,69%</t>
   </si>
   <si>
-    <t>83,91%</t>
-  </si>
-  <si>
-    <t>87,6%</t>
+    <t>83,61%</t>
+  </si>
+  <si>
+    <t>87,39%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -232,121 +232,127 @@
     <t>29,79%</t>
   </si>
   <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>53,1%</t>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>54,99%</t>
   </si>
   <si>
     <t>70,21%</t>
   </si>
   <si>
-    <t>46,9%</t>
-  </si>
-  <si>
-    <t>89,3%</t>
+    <t>45,01%</t>
+  </si>
+  <si>
+    <t>88,59%</t>
   </si>
   <si>
     <t>26,78%</t>
   </si>
   <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>38,39%</t>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>38,94%</t>
   </si>
   <si>
     <t>73,22%</t>
   </si>
   <si>
-    <t>61,61%</t>
-  </si>
-  <si>
-    <t>81,51%</t>
+    <t>61,06%</t>
+  </si>
+  <si>
+    <t>82,28%</t>
   </si>
   <si>
     <t>25,63%</t>
   </si>
   <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>31,9%</t>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>31,84%</t>
   </si>
   <si>
     <t>74,37%</t>
   </si>
   <si>
-    <t>68,1%</t>
-  </si>
-  <si>
-    <t>79,52%</t>
+    <t>68,16%</t>
+  </si>
+  <si>
+    <t>80,39%</t>
   </si>
   <si>
     <t>16,1%</t>
   </si>
   <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
   </si>
   <si>
     <t>83,9%</t>
   </si>
   <si>
-    <t>80,01%</t>
-  </si>
-  <si>
-    <t>87,39%</t>
+    <t>80,11%</t>
+  </si>
+  <si>
+    <t>87,12%</t>
   </si>
   <si>
     <t>7,73%</t>
   </si>
   <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
   </si>
   <si>
     <t>92,27%</t>
   </si>
   <si>
-    <t>88,99%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
+    <t>88,76%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
   </si>
   <si>
     <t>5,28%</t>
   </si>
   <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
   </si>
   <si>
     <t>94,72%</t>
   </si>
   <si>
-    <t>92,49%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
   </si>
   <si>
     <t>12,38%</t>
   </si>
   <si>
-    <t>10,88%</t>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
   </si>
   <si>
     <t>87,62%</t>
   </si>
   <si>
-    <t>89,12%</t>
+    <t>85,85%</t>
+  </si>
+  <si>
+    <t>89,13%</t>
   </si>
   <si>
     <t>Población según el lugar donde le realizaron dicha mamografía en 2023 (Tasa respuesta: 28,19%)</t>
@@ -355,127 +361,127 @@
     <t>40,47%</t>
   </si>
   <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>71,2%</t>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>70,63%</t>
   </si>
   <si>
     <t>59,53%</t>
   </si>
   <si>
-    <t>28,8%</t>
-  </si>
-  <si>
-    <t>88,08%</t>
+    <t>29,37%</t>
+  </si>
+  <si>
+    <t>87,19%</t>
   </si>
   <si>
     <t>30,81%</t>
   </si>
   <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>45,34%</t>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>46,18%</t>
   </si>
   <si>
     <t>69,19%</t>
   </si>
   <si>
-    <t>54,66%</t>
-  </si>
-  <si>
-    <t>81,13%</t>
+    <t>53,82%</t>
+  </si>
+  <si>
+    <t>79,86%</t>
   </si>
   <si>
     <t>33,43%</t>
   </si>
   <si>
-    <t>26,81%</t>
-  </si>
-  <si>
-    <t>40,64%</t>
+    <t>27,09%</t>
+  </si>
+  <si>
+    <t>40,51%</t>
   </si>
   <si>
     <t>66,57%</t>
   </si>
   <si>
-    <t>59,36%</t>
-  </si>
-  <si>
-    <t>73,19%</t>
+    <t>59,49%</t>
+  </si>
+  <si>
+    <t>72,91%</t>
   </si>
   <si>
     <t>28,75%</t>
   </si>
   <si>
-    <t>24,26%</t>
-  </si>
-  <si>
-    <t>33,0%</t>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>33,04%</t>
   </si>
   <si>
     <t>71,25%</t>
   </si>
   <si>
-    <t>67,0%</t>
-  </si>
-  <si>
-    <t>75,74%</t>
+    <t>66,96%</t>
+  </si>
+  <si>
+    <t>75,82%</t>
   </si>
   <si>
     <t>13,03%</t>
   </si>
   <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
   </si>
   <si>
     <t>86,97%</t>
   </si>
   <si>
-    <t>83,75%</t>
-  </si>
-  <si>
-    <t>89,64%</t>
+    <t>83,77%</t>
+  </si>
+  <si>
+    <t>89,49%</t>
   </si>
   <si>
     <t>7,91%</t>
   </si>
   <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
   </si>
   <si>
     <t>92,09%</t>
   </si>
   <si>
-    <t>89,73%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
+    <t>89,85%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
   </si>
   <si>
     <t>16,79%</t>
   </si>
   <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
   </si>
   <si>
     <t>83,21%</t>
   </si>
   <si>
-    <t>81,04%</t>
-  </si>
-  <si>
-    <t>86,72%</t>
+    <t>81,11%</t>
+  </si>
+  <si>
+    <t>86,77%</t>
   </si>
 </sst>
 </file>
@@ -887,7 +893,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3806FFB-CA58-4090-8123-5BC80B10176D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{886AE926-DBE3-4FCF-8110-36C1B7B69590}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2064,7 +2070,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCFEDE4C-B0E1-4C99-848D-DDB6B2C7685C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F77C6F27-C0B8-4364-BFFD-2564CC257D55}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3101,7 +3107,7 @@
         <v>100</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>36</v>
+        <v>101</v>
       </c>
       <c r="M22" s="7">
         <v>190</v>
@@ -3116,7 +3122,7 @@
         <v>100</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>36</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3144,13 +3150,13 @@
         <v>1481582</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>40</v>
+        <v>103</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M23" s="7">
         <v>1345</v>
@@ -3159,13 +3165,13 @@
         <v>1481582</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>40</v>
+        <v>103</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3241,7 +3247,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E698CDE6-E2BE-4B5B-9AAE-950730ADE124}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C64A0E5C-0E0D-4A90-9CE7-77FADAF2F114}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3258,7 +3264,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3378,13 +3384,13 @@
         <v>9718</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="M4" s="7">
         <v>4</v>
@@ -3393,13 +3399,13 @@
         <v>9718</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3427,13 +3433,13 @@
         <v>14295</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M5" s="7">
         <v>8</v>
@@ -3442,13 +3448,13 @@
         <v>14295</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3527,13 +3533,13 @@
         <v>17050</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="M7" s="7">
         <v>15</v>
@@ -3542,13 +3548,13 @@
         <v>17050</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3576,13 +3582,13 @@
         <v>38285</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="M8" s="7">
         <v>37</v>
@@ -3591,13 +3597,13 @@
         <v>38285</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3676,13 +3682,13 @@
         <v>45193</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M10" s="7">
         <v>68</v>
@@ -3691,13 +3697,13 @@
         <v>45193</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3725,13 +3731,13 @@
         <v>89999</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="M11" s="7">
         <v>132</v>
@@ -3740,13 +3746,13 @@
         <v>89999</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3825,13 +3831,13 @@
         <v>93283</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="M13" s="7">
         <v>143</v>
@@ -3840,13 +3846,13 @@
         <v>93283</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3874,13 +3880,13 @@
         <v>231128</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="M14" s="7">
         <v>357</v>
@@ -3889,13 +3895,13 @@
         <v>231128</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3974,13 +3980,13 @@
         <v>45495</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="M16" s="7">
         <v>74</v>
@@ -3989,13 +3995,13 @@
         <v>45495</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4023,13 +4029,13 @@
         <v>303738</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="M17" s="7">
         <v>525</v>
@@ -4038,13 +4044,13 @@
         <v>303738</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4123,13 +4129,13 @@
         <v>54878</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="M19" s="7">
         <v>100</v>
@@ -4138,13 +4144,13 @@
         <v>54878</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4172,13 +4178,13 @@
         <v>638774</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M20" s="7">
         <v>1002</v>
@@ -4187,13 +4193,13 @@
         <v>638774</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4272,13 +4278,13 @@
         <v>265616</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="M22" s="7">
         <v>404</v>
@@ -4287,13 +4293,13 @@
         <v>265616</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4321,13 +4327,13 @@
         <v>1316220</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="M23" s="7">
         <v>2061</v>
@@ -4336,13 +4342,13 @@
         <v>1316220</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P43B-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P43B-Edad-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3D270059-E6E7-458F-9B2D-9EEDEC889DD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9CE3E08A-FAB4-4D02-BEC3-ABDDE3ACDDDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1537ACB6-3DA1-4927-85C9-227CEE3184CE}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CB88F01A-4084-44C1-9CB9-10AEFFFC306E}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -79,10 +79,10 @@
     <t>17,97%</t>
   </si>
   <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>38,81%</t>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>37,68%</t>
   </si>
   <si>
     <t>Servicio sanitario público</t>
@@ -91,10 +91,10 @@
     <t>82,03%</t>
   </si>
   <si>
-    <t>61,19%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
+    <t>62,32%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
   </si>
   <si>
     <t>100%</t>
@@ -106,19 +106,19 @@
     <t>32,29%</t>
   </si>
   <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>42,64%</t>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>43,33%</t>
   </si>
   <si>
     <t>67,71%</t>
   </si>
   <si>
-    <t>57,36%</t>
-  </si>
-  <si>
-    <t>78,22%</t>
+    <t>56,67%</t>
+  </si>
+  <si>
+    <t>78,39%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -127,19 +127,19 @@
     <t>30,1%</t>
   </si>
   <si>
-    <t>24,42%</t>
-  </si>
-  <si>
-    <t>37,4%</t>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>37,26%</t>
   </si>
   <si>
     <t>69,9%</t>
   </si>
   <si>
-    <t>62,6%</t>
-  </si>
-  <si>
-    <t>75,58%</t>
+    <t>62,74%</t>
+  </si>
+  <si>
+    <t>75,59%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -148,19 +148,19 @@
     <t>17,96%</t>
   </si>
   <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
   </si>
   <si>
     <t>82,04%</t>
   </si>
   <si>
-    <t>77,35%</t>
-  </si>
-  <si>
-    <t>86,0%</t>
+    <t>77,28%</t>
+  </si>
+  <si>
+    <t>86,18%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -169,19 +169,19 @@
     <t>8,11%</t>
   </si>
   <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
   </si>
   <si>
     <t>91,89%</t>
   </si>
   <si>
-    <t>88,57%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
+    <t>88,54%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -190,169 +190,169 @@
     <t>6,05%</t>
   </si>
   <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
   </si>
   <si>
     <t>93,95%</t>
   </si>
   <si>
-    <t>91,34%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
+    <t>91,28%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
   </si>
   <si>
     <t>14,31%</t>
   </si>
   <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
   </si>
   <si>
     <t>85,69%</t>
   </si>
   <si>
-    <t>83,61%</t>
-  </si>
-  <si>
-    <t>87,39%</t>
+    <t>83,79%</t>
+  </si>
+  <si>
+    <t>87,5%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población según el lugar donde le realizaron dicha mamografía en 2015 (Tasa respuesta: 23,37%)</t>
+    <t>Población según el lugar donde le realizaron dicha mamografía en 2016 (Tasa respuesta: 23,37%)</t>
   </si>
   <si>
     <t>29,79%</t>
   </si>
   <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>54,99%</t>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>53,69%</t>
   </si>
   <si>
     <t>70,21%</t>
   </si>
   <si>
-    <t>45,01%</t>
-  </si>
-  <si>
-    <t>88,59%</t>
+    <t>46,31%</t>
+  </si>
+  <si>
+    <t>89,29%</t>
   </si>
   <si>
     <t>26,78%</t>
   </si>
   <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>38,94%</t>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>37,23%</t>
   </si>
   <si>
     <t>73,22%</t>
   </si>
   <si>
-    <t>61,06%</t>
-  </si>
-  <si>
-    <t>82,28%</t>
+    <t>62,77%</t>
+  </si>
+  <si>
+    <t>82,97%</t>
   </si>
   <si>
     <t>25,63%</t>
   </si>
   <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>31,84%</t>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>31,59%</t>
   </si>
   <si>
     <t>74,37%</t>
   </si>
   <si>
-    <t>68,16%</t>
-  </si>
-  <si>
-    <t>80,39%</t>
+    <t>68,41%</t>
+  </si>
+  <si>
+    <t>80,07%</t>
   </si>
   <si>
     <t>16,1%</t>
   </si>
   <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
   </si>
   <si>
     <t>83,9%</t>
   </si>
   <si>
-    <t>80,11%</t>
-  </si>
-  <si>
-    <t>87,12%</t>
+    <t>79,99%</t>
+  </si>
+  <si>
+    <t>87,3%</t>
   </si>
   <si>
     <t>7,73%</t>
   </si>
   <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
   </si>
   <si>
     <t>92,27%</t>
   </si>
   <si>
-    <t>88,76%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
+    <t>88,93%</t>
+  </si>
+  <si>
+    <t>94,77%</t>
   </si>
   <si>
     <t>5,28%</t>
   </si>
   <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
   </si>
   <si>
     <t>94,72%</t>
   </si>
   <si>
-    <t>92,37%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
+    <t>92,05%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
   </si>
   <si>
     <t>12,38%</t>
   </si>
   <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
   </si>
   <si>
     <t>87,62%</t>
   </si>
   <si>
-    <t>85,85%</t>
-  </si>
-  <si>
-    <t>89,13%</t>
+    <t>85,76%</t>
+  </si>
+  <si>
+    <t>89,12%</t>
   </si>
   <si>
     <t>Población según el lugar donde le realizaron dicha mamografía en 2023 (Tasa respuesta: 28,19%)</t>
@@ -893,7 +893,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{886AE926-DBE3-4FCF-8110-36C1B7B69590}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82CF0CF0-86B1-46AF-A286-57B4B140F7D0}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2070,7 +2070,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F77C6F27-C0B8-4364-BFFD-2564CC257D55}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22200DCA-8E7C-4047-AA59-72F13D0DD267}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3247,7 +3247,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C64A0E5C-0E0D-4A90-9CE7-77FADAF2F114}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD3FF3FF-10A9-4ED3-A7B9-520AFBCFE766}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/P43B-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P43B-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9CE3E08A-FAB4-4D02-BEC3-ABDDE3ACDDDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F76B4ABC-81FE-46B6-8B47-D1546725A8A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CB88F01A-4084-44C1-9CB9-10AEFFFC306E}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{50CFF7C6-D660-4BEB-9E72-5E7B3599ACB1}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="146">
   <si>
     <t>Población según el lugar donde le realizaron dicha mamografía en 2012 (Tasa respuesta: 22,96%)</t>
   </si>
@@ -79,10 +79,10 @@
     <t>17,97%</t>
   </si>
   <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>37,68%</t>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>39,76%</t>
   </si>
   <si>
     <t>Servicio sanitario público</t>
@@ -91,10 +91,10 @@
     <t>82,03%</t>
   </si>
   <si>
-    <t>62,32%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
+    <t>60,24%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
   </si>
   <si>
     <t>100%</t>
@@ -106,19 +106,19 @@
     <t>32,29%</t>
   </si>
   <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>43,33%</t>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>43,11%</t>
   </si>
   <si>
     <t>67,71%</t>
   </si>
   <si>
-    <t>56,67%</t>
-  </si>
-  <si>
-    <t>78,39%</t>
+    <t>56,89%</t>
+  </si>
+  <si>
+    <t>78,38%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -127,19 +127,19 @@
     <t>30,1%</t>
   </si>
   <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>37,26%</t>
+    <t>24,38%</t>
+  </si>
+  <si>
+    <t>36,42%</t>
   </si>
   <si>
     <t>69,9%</t>
   </si>
   <si>
-    <t>62,74%</t>
-  </si>
-  <si>
-    <t>75,59%</t>
+    <t>63,58%</t>
+  </si>
+  <si>
+    <t>75,62%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -148,19 +148,19 @@
     <t>17,96%</t>
   </si>
   <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
   </si>
   <si>
     <t>82,04%</t>
   </si>
   <si>
-    <t>77,28%</t>
-  </si>
-  <si>
-    <t>86,18%</t>
+    <t>77,17%</t>
+  </si>
+  <si>
+    <t>85,9%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -169,19 +169,19 @@
     <t>8,11%</t>
   </si>
   <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
   </si>
   <si>
     <t>91,89%</t>
   </si>
   <si>
-    <t>88,54%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
+    <t>88,15%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -190,37 +190,37 @@
     <t>6,05%</t>
   </si>
   <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
   </si>
   <si>
     <t>93,95%</t>
   </si>
   <si>
-    <t>91,28%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
   </si>
   <si>
     <t>14,31%</t>
   </si>
   <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
   </si>
   <si>
     <t>85,69%</t>
   </si>
   <si>
-    <t>83,79%</t>
-  </si>
-  <si>
-    <t>87,5%</t>
+    <t>83,91%</t>
+  </si>
+  <si>
+    <t>87,6%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -232,109 +232,109 @@
     <t>29,79%</t>
   </si>
   <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>53,69%</t>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>53,1%</t>
   </si>
   <si>
     <t>70,21%</t>
   </si>
   <si>
-    <t>46,31%</t>
-  </si>
-  <si>
-    <t>89,29%</t>
+    <t>46,9%</t>
+  </si>
+  <si>
+    <t>89,3%</t>
   </si>
   <si>
     <t>26,78%</t>
   </si>
   <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>37,23%</t>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>38,39%</t>
   </si>
   <si>
     <t>73,22%</t>
   </si>
   <si>
-    <t>62,77%</t>
-  </si>
-  <si>
-    <t>82,97%</t>
+    <t>61,61%</t>
+  </si>
+  <si>
+    <t>81,51%</t>
   </si>
   <si>
     <t>25,63%</t>
   </si>
   <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>31,59%</t>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>31,9%</t>
   </si>
   <si>
     <t>74,37%</t>
   </si>
   <si>
-    <t>68,41%</t>
-  </si>
-  <si>
-    <t>80,07%</t>
+    <t>68,1%</t>
+  </si>
+  <si>
+    <t>79,52%</t>
   </si>
   <si>
     <t>16,1%</t>
   </si>
   <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
   </si>
   <si>
     <t>83,9%</t>
   </si>
   <si>
-    <t>79,99%</t>
-  </si>
-  <si>
-    <t>87,3%</t>
+    <t>80,01%</t>
+  </si>
+  <si>
+    <t>87,39%</t>
   </si>
   <si>
     <t>7,73%</t>
   </si>
   <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
   </si>
   <si>
     <t>92,27%</t>
   </si>
   <si>
-    <t>88,93%</t>
-  </si>
-  <si>
-    <t>94,77%</t>
+    <t>88,99%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
   </si>
   <si>
     <t>5,28%</t>
   </si>
   <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
   </si>
   <si>
     <t>94,72%</t>
   </si>
   <si>
-    <t>92,05%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
+    <t>92,49%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
   </si>
   <si>
     <t>12,38%</t>
@@ -343,15 +343,9 @@
     <t>10,88%</t>
   </si>
   <si>
-    <t>14,24%</t>
-  </si>
-  <si>
     <t>87,62%</t>
   </si>
   <si>
-    <t>85,76%</t>
-  </si>
-  <si>
     <t>89,12%</t>
   </si>
   <si>
@@ -361,127 +355,127 @@
     <t>40,47%</t>
   </si>
   <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>70,63%</t>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>71,2%</t>
   </si>
   <si>
     <t>59,53%</t>
   </si>
   <si>
-    <t>29,37%</t>
-  </si>
-  <si>
-    <t>87,19%</t>
+    <t>28,8%</t>
+  </si>
+  <si>
+    <t>88,08%</t>
   </si>
   <si>
     <t>30,81%</t>
   </si>
   <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>46,18%</t>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>45,34%</t>
   </si>
   <si>
     <t>69,19%</t>
   </si>
   <si>
-    <t>53,82%</t>
-  </si>
-  <si>
-    <t>79,86%</t>
+    <t>54,66%</t>
+  </si>
+  <si>
+    <t>81,13%</t>
   </si>
   <si>
     <t>33,43%</t>
   </si>
   <si>
-    <t>27,09%</t>
-  </si>
-  <si>
-    <t>40,51%</t>
+    <t>26,81%</t>
+  </si>
+  <si>
+    <t>40,64%</t>
   </si>
   <si>
     <t>66,57%</t>
   </si>
   <si>
-    <t>59,49%</t>
-  </si>
-  <si>
-    <t>72,91%</t>
+    <t>59,36%</t>
+  </si>
+  <si>
+    <t>73,19%</t>
   </si>
   <si>
     <t>28,75%</t>
   </si>
   <si>
-    <t>24,18%</t>
-  </si>
-  <si>
-    <t>33,04%</t>
+    <t>24,26%</t>
+  </si>
+  <si>
+    <t>33,0%</t>
   </si>
   <si>
     <t>71,25%</t>
   </si>
   <si>
-    <t>66,96%</t>
-  </si>
-  <si>
-    <t>75,82%</t>
+    <t>67,0%</t>
+  </si>
+  <si>
+    <t>75,74%</t>
   </si>
   <si>
     <t>13,03%</t>
   </si>
   <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
   </si>
   <si>
     <t>86,97%</t>
   </si>
   <si>
-    <t>83,77%</t>
-  </si>
-  <si>
-    <t>89,49%</t>
+    <t>83,75%</t>
+  </si>
+  <si>
+    <t>89,64%</t>
   </si>
   <si>
     <t>7,91%</t>
   </si>
   <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
   </si>
   <si>
     <t>92,09%</t>
   </si>
   <si>
-    <t>89,85%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
+    <t>89,73%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
   </si>
   <si>
     <t>16,79%</t>
   </si>
   <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
   </si>
   <si>
     <t>83,21%</t>
   </si>
   <si>
-    <t>81,11%</t>
-  </si>
-  <si>
-    <t>86,77%</t>
+    <t>81,04%</t>
+  </si>
+  <si>
+    <t>86,72%</t>
   </si>
 </sst>
 </file>
@@ -893,7 +887,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82CF0CF0-86B1-46AF-A286-57B4B140F7D0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C285DB85-CD4A-4E89-A373-ED3ED9CE6F91}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2070,7 +2064,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22200DCA-8E7C-4047-AA59-72F13D0DD267}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5DC04A3-D003-4AC7-B744-D2FA4D99C7BF}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3107,7 +3101,7 @@
         <v>100</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>101</v>
+        <v>36</v>
       </c>
       <c r="M22" s="7">
         <v>190</v>
@@ -3122,7 +3116,7 @@
         <v>100</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>101</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3150,13 +3144,13 @@
         <v>1481582</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="M23" s="7">
         <v>1345</v>
@@ -3165,13 +3159,13 @@
         <v>1481582</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3247,7 +3241,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD3FF3FF-10A9-4ED3-A7B9-520AFBCFE766}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0B5D9F3-0531-4D1A-AC7E-971D45E22C07}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3264,7 +3258,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3384,13 +3378,13 @@
         <v>9718</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="M4" s="7">
         <v>4</v>
@@ -3399,13 +3393,13 @@
         <v>9718</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3433,13 +3427,13 @@
         <v>14295</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="M5" s="7">
         <v>8</v>
@@ -3448,13 +3442,13 @@
         <v>14295</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3533,13 +3527,13 @@
         <v>17050</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="M7" s="7">
         <v>15</v>
@@ -3548,13 +3542,13 @@
         <v>17050</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3582,13 +3576,13 @@
         <v>38285</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="M8" s="7">
         <v>37</v>
@@ -3597,13 +3591,13 @@
         <v>38285</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3682,13 +3676,13 @@
         <v>45193</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="M10" s="7">
         <v>68</v>
@@ -3697,13 +3691,13 @@
         <v>45193</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3731,13 +3725,13 @@
         <v>89999</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="M11" s="7">
         <v>132</v>
@@ -3746,13 +3740,13 @@
         <v>89999</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3831,13 +3825,13 @@
         <v>93283</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="M13" s="7">
         <v>143</v>
@@ -3846,13 +3840,13 @@
         <v>93283</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3880,13 +3874,13 @@
         <v>231128</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="M14" s="7">
         <v>357</v>
@@ -3895,13 +3889,13 @@
         <v>231128</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3980,13 +3974,13 @@
         <v>45495</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="M16" s="7">
         <v>74</v>
@@ -3995,13 +3989,13 @@
         <v>45495</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4029,13 +4023,13 @@
         <v>303738</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="M17" s="7">
         <v>525</v>
@@ -4044,13 +4038,13 @@
         <v>303738</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4129,13 +4123,13 @@
         <v>54878</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="M19" s="7">
         <v>100</v>
@@ -4144,13 +4138,13 @@
         <v>54878</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4178,13 +4172,13 @@
         <v>638774</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="M20" s="7">
         <v>1002</v>
@@ -4193,13 +4187,13 @@
         <v>638774</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4278,13 +4272,13 @@
         <v>265616</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="M22" s="7">
         <v>404</v>
@@ -4293,13 +4287,13 @@
         <v>265616</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4327,13 +4321,13 @@
         <v>1316220</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="M23" s="7">
         <v>2061</v>
@@ -4342,13 +4336,13 @@
         <v>1316220</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P43B-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P43B-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F76B4ABC-81FE-46B6-8B47-D1546725A8A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F60A376A-7B85-46A3-A093-2434B5AC24B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{50CFF7C6-D660-4BEB-9E72-5E7B3599ACB1}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{2E785FF1-E1BA-4AD3-A7EB-D4BAFD83C836}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="165">
   <si>
     <t>Población según el lugar donde le realizaron dicha mamografía en 2012 (Tasa respuesta: 22,96%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Servicio sanitario privado</t>
@@ -100,7 +100,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>32,29%</t>
@@ -121,7 +121,7 @@
     <t>78,38%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>30,1%</t>
@@ -142,7 +142,7 @@
     <t>75,62%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>17,96%</t>
@@ -163,7 +163,7 @@
     <t>85,9%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>8,11%</t>
@@ -184,25 +184,46 @@
     <t>94,35%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>89,62%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>90,31%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
   </si>
   <si>
     <t>14,31%</t>
@@ -319,22 +340,40 @@
     <t>94,78%</t>
   </si>
   <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>92,49%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>93,2%</t>
+  </si>
+  <si>
+    <t>89,53%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>92,57%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
   </si>
   <si>
     <t>12,38%</t>
@@ -352,130 +391,148 @@
     <t>Población según el lugar donde le realizaron dicha mamografía en 2023 (Tasa respuesta: 28,19%)</t>
   </si>
   <si>
-    <t>40,47%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>71,2%</t>
-  </si>
-  <si>
-    <t>59,53%</t>
-  </si>
-  <si>
-    <t>28,8%</t>
-  </si>
-  <si>
-    <t>88,08%</t>
-  </si>
-  <si>
-    <t>30,81%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>45,34%</t>
-  </si>
-  <si>
-    <t>69,19%</t>
-  </si>
-  <si>
-    <t>54,66%</t>
-  </si>
-  <si>
-    <t>81,13%</t>
+    <t>39,89%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>70,28%</t>
+  </si>
+  <si>
+    <t>60,11%</t>
+  </si>
+  <si>
+    <t>29,72%</t>
+  </si>
+  <si>
+    <t>90,83%</t>
+  </si>
+  <si>
+    <t>31,15%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>46,25%</t>
+  </si>
+  <si>
+    <t>68,85%</t>
+  </si>
+  <si>
+    <t>53,75%</t>
+  </si>
+  <si>
+    <t>81,07%</t>
   </si>
   <si>
     <t>33,43%</t>
   </si>
   <si>
-    <t>26,81%</t>
-  </si>
-  <si>
-    <t>40,64%</t>
+    <t>26,66%</t>
+  </si>
+  <si>
+    <t>40,51%</t>
   </si>
   <si>
     <t>66,57%</t>
   </si>
   <si>
-    <t>59,36%</t>
-  </si>
-  <si>
-    <t>73,19%</t>
-  </si>
-  <si>
-    <t>28,75%</t>
-  </si>
-  <si>
-    <t>24,26%</t>
-  </si>
-  <si>
-    <t>33,0%</t>
-  </si>
-  <si>
-    <t>71,25%</t>
-  </si>
-  <si>
-    <t>67,0%</t>
-  </si>
-  <si>
-    <t>75,74%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>86,97%</t>
-  </si>
-  <si>
-    <t>83,75%</t>
-  </si>
-  <si>
-    <t>89,64%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>92,09%</t>
-  </si>
-  <si>
-    <t>89,73%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>83,21%</t>
-  </si>
-  <si>
-    <t>81,04%</t>
-  </si>
-  <si>
-    <t>86,72%</t>
+    <t>59,49%</t>
+  </si>
+  <si>
+    <t>73,34%</t>
+  </si>
+  <si>
+    <t>26,73%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>31,43%</t>
+  </si>
+  <si>
+    <t>73,27%</t>
+  </si>
+  <si>
+    <t>68,57%</t>
+  </si>
+  <si>
+    <t>81,28%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>87,02%</t>
+  </si>
+  <si>
+    <t>83,87%</t>
+  </si>
+  <si>
+    <t>89,72%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>93,81%</t>
+  </si>
+  <si>
+    <t>88,12%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>91,98%</t>
+  </si>
+  <si>
+    <t>89,41%</t>
+  </si>
+  <si>
+    <t>94,1%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>84,44%</t>
+  </si>
+  <si>
+    <t>81,41%</t>
+  </si>
+  <si>
+    <t>90,0%</t>
   </si>
 </sst>
 </file>
@@ -887,8 +944,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C285DB85-CD4A-4E89-A373-ED3ED9CE6F91}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0DDDF5A-B1D1-4E12-AB3F-24543C9BAE31}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1763,10 +1820,10 @@
         <v>11</v>
       </c>
       <c r="H19" s="7">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="I19" s="7">
-        <v>30155</v>
+        <v>19171</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>49</v>
@@ -1778,10 +1835,10 @@
         <v>51</v>
       </c>
       <c r="M19" s="7">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="N19" s="7">
-        <v>30155</v>
+        <v>19171</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>49</v>
@@ -1812,10 +1869,10 @@
         <v>11</v>
       </c>
       <c r="H20" s="7">
-        <v>444</v>
+        <v>274</v>
       </c>
       <c r="I20" s="7">
-        <v>468334</v>
+        <v>278349</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>52</v>
@@ -1827,10 +1884,10 @@
         <v>54</v>
       </c>
       <c r="M20" s="7">
-        <v>444</v>
+        <v>274</v>
       </c>
       <c r="N20" s="7">
-        <v>468334</v>
+        <v>278349</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>52</v>
@@ -1861,10 +1918,10 @@
         <v>11</v>
       </c>
       <c r="H21" s="7">
-        <v>472</v>
+        <v>292</v>
       </c>
       <c r="I21" s="7">
-        <v>498489</v>
+        <v>297520</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>19</v>
@@ -1876,10 +1933,10 @@
         <v>19</v>
       </c>
       <c r="M21" s="7">
-        <v>472</v>
+        <v>292</v>
       </c>
       <c r="N21" s="7">
-        <v>498489</v>
+        <v>297520</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>19</v>
@@ -1893,7 +1950,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>55</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -1912,34 +1969,34 @@
         <v>11</v>
       </c>
       <c r="H22" s="7">
-        <v>204</v>
+        <v>10</v>
       </c>
       <c r="I22" s="7">
-        <v>234035</v>
+        <v>10985</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K22" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="M22" s="7">
+        <v>10</v>
+      </c>
+      <c r="N22" s="7">
+        <v>10985</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="L22" s="7" t="s">
+      <c r="P22" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="M22" s="7">
-        <v>204</v>
-      </c>
-      <c r="N22" s="7">
-        <v>234035</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>56</v>
-      </c>
       <c r="Q22" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1961,34 +2018,34 @@
         <v>11</v>
       </c>
       <c r="H23" s="7">
-        <v>1290</v>
+        <v>170</v>
       </c>
       <c r="I23" s="7">
-        <v>1401577</v>
+        <v>189984</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K23" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="M23" s="7">
+        <v>170</v>
+      </c>
+      <c r="N23" s="7">
+        <v>189984</v>
+      </c>
+      <c r="O23" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="L23" s="7" t="s">
+      <c r="P23" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="M23" s="7">
-        <v>1290</v>
-      </c>
-      <c r="N23" s="7">
-        <v>1401577</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>59</v>
-      </c>
       <c r="Q23" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2010,48 +2067,198 @@
         <v>11</v>
       </c>
       <c r="H24" s="7">
+        <v>180</v>
+      </c>
+      <c r="I24" s="7">
+        <v>200969</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M24" s="7">
+        <v>180</v>
+      </c>
+      <c r="N24" s="7">
+        <v>200969</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>0</v>
+      </c>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H25" s="7">
+        <v>204</v>
+      </c>
+      <c r="I25" s="7">
+        <v>234035</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="M25" s="7">
+        <v>204</v>
+      </c>
+      <c r="N25" s="7">
+        <v>234035</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="7">
+        <v>0</v>
+      </c>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H26" s="7">
+        <v>1290</v>
+      </c>
+      <c r="I26" s="7">
+        <v>1401576</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="M26" s="7">
+        <v>1290</v>
+      </c>
+      <c r="N26" s="7">
+        <v>1401576</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
+        <v>0</v>
+      </c>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H27" s="7">
         <v>1494</v>
       </c>
-      <c r="I24" s="7">
-        <v>1635612</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>1635611</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M27" s="7">
         <v>1494</v>
       </c>
-      <c r="N24" s="7">
-        <v>1635612</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>61</v>
+      <c r="N27" s="7">
+        <v>1635611</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2064,8 +2271,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5DC04A3-D003-4AC7-B744-D2FA4D99C7BF}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70D7445E-C239-4FBB-BCD0-2294BA0549BF}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2081,7 +2288,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2201,13 +2408,13 @@
         <v>5572</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="M4" s="7">
         <v>5</v>
@@ -2216,13 +2423,13 @@
         <v>5572</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2250,13 +2457,13 @@
         <v>13133</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="M5" s="7">
         <v>14</v>
@@ -2265,13 +2472,13 @@
         <v>13133</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2350,13 +2557,13 @@
         <v>18860</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="M7" s="7">
         <v>18</v>
@@ -2365,13 +2572,13 @@
         <v>18860</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2399,13 +2606,13 @@
         <v>51571</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="M8" s="7">
         <v>55</v>
@@ -2414,13 +2621,13 @@
         <v>51571</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2499,13 +2706,13 @@
         <v>55794</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="M10" s="7">
         <v>55</v>
@@ -2514,13 +2721,13 @@
         <v>55794</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2548,13 +2755,13 @@
         <v>161903</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="M11" s="7">
         <v>165</v>
@@ -2563,13 +2770,13 @@
         <v>161903</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2648,13 +2855,13 @@
         <v>67605</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="M13" s="7">
         <v>61</v>
@@ -2663,13 +2870,13 @@
         <v>67605</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2697,13 +2904,13 @@
         <v>352347</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="M14" s="7">
         <v>329</v>
@@ -2712,13 +2919,13 @@
         <v>352347</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2797,13 +3004,13 @@
         <v>33604</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="M16" s="7">
         <v>27</v>
@@ -2812,13 +3019,13 @@
         <v>33604</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2846,13 +3053,13 @@
         <v>400864</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="M17" s="7">
         <v>352</v>
@@ -2861,13 +3068,13 @@
         <v>400864</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2940,34 +3147,34 @@
         <v>11</v>
       </c>
       <c r="H19" s="7">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="I19" s="7">
-        <v>27993</v>
+        <v>20669</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="M19" s="7">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="N19" s="7">
-        <v>27993</v>
+        <v>20669</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2989,34 +3196,34 @@
         <v>11</v>
       </c>
       <c r="H20" s="7">
-        <v>430</v>
+        <v>265</v>
       </c>
       <c r="I20" s="7">
-        <v>501764</v>
+        <v>283252</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="M20" s="7">
-        <v>430</v>
+        <v>265</v>
       </c>
       <c r="N20" s="7">
-        <v>501764</v>
+        <v>283252</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3038,10 +3245,10 @@
         <v>11</v>
       </c>
       <c r="H21" s="7">
-        <v>454</v>
+        <v>284</v>
       </c>
       <c r="I21" s="7">
-        <v>529757</v>
+        <v>303921</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>19</v>
@@ -3053,10 +3260,10 @@
         <v>19</v>
       </c>
       <c r="M21" s="7">
-        <v>454</v>
+        <v>284</v>
       </c>
       <c r="N21" s="7">
-        <v>529757</v>
+        <v>303921</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>19</v>
@@ -3070,7 +3277,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>55</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3089,34 +3296,34 @@
         <v>11</v>
       </c>
       <c r="H22" s="7">
-        <v>190</v>
+        <v>5</v>
       </c>
       <c r="I22" s="7">
-        <v>209428</v>
+        <v>7324</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>36</v>
+        <v>108</v>
       </c>
       <c r="M22" s="7">
-        <v>190</v>
+        <v>5</v>
       </c>
       <c r="N22" s="7">
-        <v>209428</v>
+        <v>7324</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>36</v>
+        <v>108</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3138,34 +3345,34 @@
         <v>11</v>
       </c>
       <c r="H23" s="7">
-        <v>1345</v>
+        <v>165</v>
       </c>
       <c r="I23" s="7">
-        <v>1481582</v>
+        <v>218512</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="M23" s="7">
-        <v>1345</v>
+        <v>165</v>
       </c>
       <c r="N23" s="7">
-        <v>1481582</v>
+        <v>218512</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3187,48 +3394,198 @@
         <v>11</v>
       </c>
       <c r="H24" s="7">
+        <v>170</v>
+      </c>
+      <c r="I24" s="7">
+        <v>225836</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M24" s="7">
+        <v>170</v>
+      </c>
+      <c r="N24" s="7">
+        <v>225836</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>0</v>
+      </c>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H25" s="7">
+        <v>190</v>
+      </c>
+      <c r="I25" s="7">
+        <v>209428</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="M25" s="7">
+        <v>190</v>
+      </c>
+      <c r="N25" s="7">
+        <v>209428</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="7">
+        <v>0</v>
+      </c>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H26" s="7">
+        <v>1345</v>
+      </c>
+      <c r="I26" s="7">
+        <v>1481582</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="M26" s="7">
+        <v>1345</v>
+      </c>
+      <c r="N26" s="7">
+        <v>1481582</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
+        <v>0</v>
+      </c>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H27" s="7">
         <v>1535</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>1691010</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M27" s="7">
         <v>1535</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>1691010</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>61</v>
+      <c r="O27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3241,8 +3598,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0B5D9F3-0531-4D1A-AC7E-971D45E22C07}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1CAFB07-1AC1-4B7B-8E95-EE4ABF37D322}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3258,7 +3615,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3375,31 +3732,31 @@
         <v>4</v>
       </c>
       <c r="I4" s="7">
-        <v>9718</v>
+        <v>8495</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="M4" s="7">
         <v>4</v>
       </c>
       <c r="N4" s="7">
-        <v>9718</v>
+        <v>8495</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3424,31 +3781,31 @@
         <v>8</v>
       </c>
       <c r="I5" s="7">
-        <v>14295</v>
+        <v>12801</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="M5" s="7">
         <v>8</v>
       </c>
       <c r="N5" s="7">
-        <v>14295</v>
+        <v>12801</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3473,7 +3830,7 @@
         <v>12</v>
       </c>
       <c r="I6" s="7">
-        <v>24013</v>
+        <v>21296</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -3488,7 +3845,7 @@
         <v>12</v>
       </c>
       <c r="N6" s="7">
-        <v>24013</v>
+        <v>21296</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>19</v>
@@ -3524,31 +3881,31 @@
         <v>15</v>
       </c>
       <c r="I7" s="7">
-        <v>17050</v>
+        <v>16173</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="M7" s="7">
         <v>15</v>
       </c>
       <c r="N7" s="7">
-        <v>17050</v>
+        <v>16173</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3573,31 +3930,31 @@
         <v>37</v>
       </c>
       <c r="I8" s="7">
-        <v>38285</v>
+        <v>35740</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="M8" s="7">
         <v>37</v>
       </c>
       <c r="N8" s="7">
-        <v>38285</v>
+        <v>35740</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3622,7 +3979,7 @@
         <v>52</v>
       </c>
       <c r="I9" s="7">
-        <v>55335</v>
+        <v>51913</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -3637,7 +3994,7 @@
         <v>52</v>
       </c>
       <c r="N9" s="7">
-        <v>55335</v>
+        <v>51913</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>19</v>
@@ -3673,31 +4030,31 @@
         <v>68</v>
       </c>
       <c r="I10" s="7">
-        <v>45193</v>
+        <v>42190</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="M10" s="7">
         <v>68</v>
       </c>
       <c r="N10" s="7">
-        <v>45193</v>
+        <v>42190</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3722,31 +4079,31 @@
         <v>132</v>
       </c>
       <c r="I11" s="7">
-        <v>89999</v>
+        <v>84016</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="M11" s="7">
         <v>132</v>
       </c>
       <c r="N11" s="7">
-        <v>89999</v>
+        <v>84016</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3771,7 +4128,7 @@
         <v>200</v>
       </c>
       <c r="I12" s="7">
-        <v>135192</v>
+        <v>126206</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -3786,7 +4143,7 @@
         <v>200</v>
       </c>
       <c r="N12" s="7">
-        <v>135192</v>
+        <v>126206</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>19</v>
@@ -3822,31 +4179,31 @@
         <v>143</v>
       </c>
       <c r="I13" s="7">
-        <v>93283</v>
+        <v>87286</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="M13" s="7">
         <v>143</v>
       </c>
       <c r="N13" s="7">
-        <v>93283</v>
+        <v>87286</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3871,31 +4228,31 @@
         <v>357</v>
       </c>
       <c r="I14" s="7">
-        <v>231128</v>
+        <v>239272</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="M14" s="7">
         <v>357</v>
       </c>
       <c r="N14" s="7">
-        <v>231128</v>
+        <v>239272</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3920,7 +4277,7 @@
         <v>500</v>
       </c>
       <c r="I15" s="7">
-        <v>324411</v>
+        <v>326558</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -3935,7 +4292,7 @@
         <v>500</v>
       </c>
       <c r="N15" s="7">
-        <v>324411</v>
+        <v>326558</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -3971,31 +4328,31 @@
         <v>74</v>
       </c>
       <c r="I16" s="7">
-        <v>45495</v>
+        <v>41823</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="M16" s="7">
         <v>74</v>
       </c>
       <c r="N16" s="7">
-        <v>45495</v>
+        <v>41823</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4020,31 +4377,31 @@
         <v>525</v>
       </c>
       <c r="I17" s="7">
-        <v>303738</v>
+        <v>280429</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="M17" s="7">
         <v>525</v>
       </c>
       <c r="N17" s="7">
-        <v>303738</v>
+        <v>280429</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4069,7 +4426,7 @@
         <v>599</v>
       </c>
       <c r="I18" s="7">
-        <v>349233</v>
+        <v>322252</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -4084,7 +4441,7 @@
         <v>599</v>
       </c>
       <c r="N18" s="7">
-        <v>349233</v>
+        <v>322252</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>19</v>
@@ -4117,34 +4474,34 @@
         <v>11</v>
       </c>
       <c r="H19" s="7">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="I19" s="7">
-        <v>54878</v>
+        <v>29483</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="M19" s="7">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="N19" s="7">
-        <v>54878</v>
+        <v>29483</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4166,34 +4523,34 @@
         <v>11</v>
       </c>
       <c r="H20" s="7">
-        <v>1002</v>
+        <v>501</v>
       </c>
       <c r="I20" s="7">
-        <v>638774</v>
+        <v>446609</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="M20" s="7">
-        <v>1002</v>
+        <v>501</v>
       </c>
       <c r="N20" s="7">
-        <v>638774</v>
+        <v>446609</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4215,10 +4572,10 @@
         <v>11</v>
       </c>
       <c r="H21" s="7">
-        <v>1102</v>
+        <v>561</v>
       </c>
       <c r="I21" s="7">
-        <v>693652</v>
+        <v>476092</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>19</v>
@@ -4230,10 +4587,10 @@
         <v>19</v>
       </c>
       <c r="M21" s="7">
-        <v>1102</v>
+        <v>561</v>
       </c>
       <c r="N21" s="7">
-        <v>693652</v>
+        <v>476092</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>19</v>
@@ -4247,7 +4604,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>55</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4266,34 +4623,34 @@
         <v>11</v>
       </c>
       <c r="H22" s="7">
-        <v>404</v>
+        <v>40</v>
       </c>
       <c r="I22" s="7">
-        <v>265616</v>
+        <v>20674</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="M22" s="7">
-        <v>404</v>
+        <v>40</v>
       </c>
       <c r="N22" s="7">
-        <v>265616</v>
+        <v>20674</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4315,34 +4672,34 @@
         <v>11</v>
       </c>
       <c r="H23" s="7">
-        <v>2061</v>
+        <v>501</v>
       </c>
       <c r="I23" s="7">
-        <v>1316220</v>
+        <v>237121</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="M23" s="7">
-        <v>2061</v>
+        <v>501</v>
       </c>
       <c r="N23" s="7">
-        <v>1316220</v>
+        <v>237121</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4364,48 +4721,198 @@
         <v>11</v>
       </c>
       <c r="H24" s="7">
+        <v>541</v>
+      </c>
+      <c r="I24" s="7">
+        <v>257795</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M24" s="7">
+        <v>541</v>
+      </c>
+      <c r="N24" s="7">
+        <v>257795</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>0</v>
+      </c>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H25" s="7">
+        <v>404</v>
+      </c>
+      <c r="I25" s="7">
+        <v>246124</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="M25" s="7">
+        <v>404</v>
+      </c>
+      <c r="N25" s="7">
+        <v>246124</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="7">
+        <v>0</v>
+      </c>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H26" s="7">
+        <v>2061</v>
+      </c>
+      <c r="I26" s="7">
+        <v>1335989</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="M26" s="7">
+        <v>2061</v>
+      </c>
+      <c r="N26" s="7">
+        <v>1335989</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
+        <v>0</v>
+      </c>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H27" s="7">
         <v>2465</v>
       </c>
-      <c r="I24" s="7">
-        <v>1581836</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>1582113</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M27" s="7">
         <v>2465</v>
       </c>
-      <c r="N24" s="7">
-        <v>1581836</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>61</v>
+      <c r="N27" s="7">
+        <v>1582113</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
